--- a/Data/EC/NIT-9003868426.xlsx
+++ b/Data/EC/NIT-9003868426.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6ABF1A7-9A16-4CA3-B634-3AB0731561A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{628576F7-506E-4471-B6FD-2D5B97DE6F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{71A83930-B743-4AF0-B127-96B1B032FEBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5BC02578-36B4-4C9D-A1B9-290F59D03A86}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,127 +65,133 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73595154</t>
+  </si>
+  <si>
+    <t>FRAY JIMENEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>12583855</t>
+  </si>
+  <si>
+    <t>GILBERTO GUTIERREZ BARROS</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>92446646</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO MORENO TEHERAN</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1047495324</t>
+  </si>
+  <si>
+    <t>MARIA PAULA BOSSA FOX</t>
+  </si>
+  <si>
+    <t>1047479830</t>
+  </si>
+  <si>
+    <t>ERIKA ANDREA BENITEZ PALAU</t>
+  </si>
+  <si>
+    <t>9103495</t>
+  </si>
+  <si>
+    <t>DABIAN EFRAIN GONZALEZ PALACIO</t>
+  </si>
+  <si>
     <t>73111664</t>
   </si>
   <si>
     <t>ROBERTO SIMANCAS REYES</t>
   </si>
   <si>
+    <t>1803</t>
+  </si>
+  <si>
     <t>1801</t>
   </si>
   <si>
+    <t>19792192</t>
+  </si>
+  <si>
+    <t>RODRIGO SALOMON MARIOTE CARABALLO</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>73241391</t>
+  </si>
+  <si>
+    <t>ALEXANDER ALMANZA TAPIA</t>
+  </si>
+  <si>
     <t>7885465</t>
   </si>
   <si>
     <t>JULIO CESAR HERNANDEZ ACEVEDO</t>
   </si>
   <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>19792192</t>
-  </si>
-  <si>
-    <t>RODRIGO SALOMON MARIOTE CARABALLO</t>
-  </si>
-  <si>
     <t>73155395</t>
   </si>
   <si>
     <t>ALEJANDRO JAVIER FOX SALGADO</t>
   </si>
   <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>73198379</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS OTERO QUINTANA</t>
+  </si>
+  <si>
+    <t>1007028102</t>
+  </si>
+  <si>
+    <t>LADIS JOSE MUÑOZ CAMPO</t>
+  </si>
+  <si>
     <t>1067404115</t>
   </si>
   <si>
     <t>LUIS RICARDO GALVIS CASTRO</t>
   </si>
   <si>
-    <t>73241391</t>
-  </si>
-  <si>
-    <t>ALEXANDER ALMANZA TAPIA</t>
-  </si>
-  <si>
-    <t>1007028102</t>
-  </si>
-  <si>
-    <t>LADIS JOSE MUÑOZ CAMPO</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1047495324</t>
-  </si>
-  <si>
-    <t>MARIA PAULA BOSSA FOX</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>92446646</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO MORENO TEHERAN</t>
-  </si>
-  <si>
-    <t>1047479830</t>
-  </si>
-  <si>
-    <t>ERIKA ANDREA BENITEZ PALAU</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>73595154</t>
-  </si>
-  <si>
-    <t>FRAY JIMENEZ JIMENEZ</t>
-  </si>
-  <si>
-    <t>9103495</t>
-  </si>
-  <si>
-    <t>DABIAN EFRAIN GONZALEZ PALACIO</t>
-  </si>
-  <si>
-    <t>73198379</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS OTERO QUINTANA</t>
-  </si>
-  <si>
-    <t>12583855</t>
-  </si>
-  <si>
-    <t>GILBERTO GUTIERREZ BARROS</t>
-  </si>
-  <si>
-    <t>2008</t>
+    <t>1143368957</t>
+  </si>
+  <si>
+    <t>RONALD FERNANDO CAUSIL MEJIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -599,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBF5F76-31BB-1C72-09A8-F95282AB416D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EE423C-F5AD-E217-FA7E-7BBEB2AB2C44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,8 +956,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA306E31-223D-4AB0-87B2-23DEB98DC29C}">
-  <dimension ref="B2:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30CBDF6-D8F3-4CD1-B0C9-23D58F007F2D}">
+  <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -975,7 +981,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1020,7 +1026,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1052,12 +1058,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4127439</v>
+        <v>4466639</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1068,14 +1074,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5">
         <v>13</v>
@@ -1105,13 +1111,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1128,10 +1134,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>37219</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>930471</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1151,10 +1157,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>781980</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1171,13 +1177,13 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>781980</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1188,19 +1194,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F19" s="18">
-        <v>360000</v>
+        <v>56000</v>
       </c>
       <c r="G19" s="18">
-        <v>9540000</v>
+        <v>1400000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1211,19 +1217,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>32080</v>
+        <v>67840</v>
       </c>
       <c r="G20" s="18">
-        <v>850120</v>
+        <v>1696000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1234,19 +1240,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>44000</v>
+        <v>37219</v>
       </c>
       <c r="G21" s="18">
-        <v>1166000</v>
+        <v>930471</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1257,16 +1263,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>984</v>
       </c>
       <c r="G22" s="18">
         <v>781980</v>
@@ -1280,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
@@ -1303,19 +1309,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>1467</v>
+        <v>37219</v>
       </c>
       <c r="G24" s="18">
-        <v>1166000</v>
+        <v>930471</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1326,19 +1332,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>781980</v>
+        <v>930471</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1349,19 +1355,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F26" s="18">
         <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>781980</v>
+        <v>930471</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1372,19 +1378,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F27" s="18">
-        <v>984</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>930471</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1395,19 +1401,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>360000</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>9540000</v>
+        <v>930471</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1418,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F29" s="18">
-        <v>1069</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>850120</v>
+        <v>930471</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1441,19 +1447,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>1467</v>
       </c>
       <c r="G30" s="18">
-        <v>781980</v>
+        <v>1166000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1464,19 +1470,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>44000</v>
       </c>
       <c r="G31" s="18">
-        <v>781980</v>
+        <v>1166000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1487,16 +1493,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
-        <v>6885</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
         <v>781980</v>
@@ -1510,19 +1516,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
-        <v>360000</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>9540000</v>
+        <v>781980</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1533,13 +1539,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
@@ -1556,13 +1562,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
@@ -1579,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>360000</v>
+        <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>9540000</v>
+        <v>781980</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1602,19 +1608,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>29509</v>
+        <v>127200</v>
       </c>
       <c r="G37" s="18">
-        <v>781980</v>
+        <v>3180000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1625,19 +1631,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>127200</v>
       </c>
       <c r="G38" s="18">
-        <v>781980</v>
+        <v>3180000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1648,19 +1654,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F39" s="18">
-        <v>360000</v>
+        <v>381600</v>
       </c>
       <c r="G39" s="18">
-        <v>9540000</v>
+        <v>3180000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1671,19 +1677,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F40" s="18">
-        <v>360000</v>
+        <v>381600</v>
       </c>
       <c r="G40" s="18">
-        <v>9540000</v>
+        <v>3180000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1694,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F41" s="18">
         <v>360000</v>
       </c>
       <c r="G41" s="18">
-        <v>9540000</v>
+        <v>3180000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1717,19 +1723,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F42" s="18">
-        <v>381600</v>
+        <v>360000</v>
       </c>
       <c r="G42" s="18">
-        <v>9540000</v>
+        <v>3180000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1740,19 +1746,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F43" s="18">
-        <v>381600</v>
+        <v>360000</v>
       </c>
       <c r="G43" s="18">
-        <v>9540000</v>
+        <v>3180000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1763,19 +1769,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F44" s="18">
-        <v>56000</v>
+        <v>360000</v>
       </c>
       <c r="G44" s="18">
-        <v>1400000</v>
+        <v>3180000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1786,19 +1792,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F45" s="18">
-        <v>40000</v>
+        <v>360000</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>3180000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1809,19 +1815,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F46" s="18">
-        <v>37219</v>
+        <v>360000</v>
       </c>
       <c r="G46" s="18">
-        <v>781980</v>
+        <v>3180000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1838,13 +1844,13 @@
         <v>39</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F47" s="18">
-        <v>67840</v>
+        <v>360000</v>
       </c>
       <c r="G47" s="18">
-        <v>1696000</v>
+        <v>3180000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1855,19 +1861,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
-        <v>37219</v>
+        <v>46640</v>
       </c>
       <c r="G48" s="18">
-        <v>930471</v>
+        <v>1166000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1878,19 +1884,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F49" s="18">
-        <v>37219</v>
+        <v>6885</v>
       </c>
       <c r="G49" s="18">
-        <v>930471</v>
+        <v>781980</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1901,75 +1907,144 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
-        <v>46640</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
-        <v>1166000</v>
+        <v>781980</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="E51" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G51" s="18">
+        <v>781980</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="D52" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G51" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="H56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="H57" s="1" t="s">
+      <c r="E52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="18">
+        <v>1069</v>
+      </c>
+      <c r="G52" s="18">
+        <v>850120</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="18">
+        <v>32080</v>
+      </c>
+      <c r="G53" s="18">
+        <v>850120</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="24">
+        <v>84800</v>
+      </c>
+      <c r="G54" s="24">
+        <v>2120000</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="26"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="H59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="C60" s="32"/>
+      <c r="H60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H59:J59"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003868426.xlsx
+++ b/Data/EC/NIT-9003868426.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{628576F7-506E-4471-B6FD-2D5B97DE6F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C4B923-27BD-4719-A5BA-49C462F0995D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5BC02578-36B4-4C9D-A1B9-290F59D03A86}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1C5758CA-6953-4A6B-9908-11A8FE69944C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,93 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73111664</t>
+  </si>
+  <si>
+    <t>ROBERTO SIMANCAS REYES</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>19792192</t>
+  </si>
+  <si>
+    <t>RODRIGO SALOMON MARIOTE CARABALLO</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>73241391</t>
+  </si>
+  <si>
+    <t>ALEXANDER ALMANZA TAPIA</t>
+  </si>
+  <si>
+    <t>7885465</t>
+  </si>
+  <si>
+    <t>JULIO CESAR HERNANDEZ ACEVEDO</t>
+  </si>
+  <si>
+    <t>73155395</t>
+  </si>
+  <si>
+    <t>ALEJANDRO JAVIER FOX SALGADO</t>
+  </si>
+  <si>
+    <t>1007028102</t>
+  </si>
+  <si>
+    <t>LADIS JOSE MUÑOZ CAMPO</t>
+  </si>
+  <si>
+    <t>1067404115</t>
+  </si>
+  <si>
+    <t>LUIS RICARDO GALVIS CASTRO</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>92446646</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO MORENO TEHERAN</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1047495324</t>
+  </si>
+  <si>
+    <t>MARIA PAULA BOSSA FOX</t>
+  </si>
+  <si>
     <t>73595154</t>
   </si>
   <si>
@@ -74,6 +161,24 @@
     <t>2007</t>
   </si>
   <si>
+    <t>1047479830</t>
+  </si>
+  <si>
+    <t>ERIKA ANDREA BENITEZ PALAU</t>
+  </si>
+  <si>
+    <t>9103495</t>
+  </si>
+  <si>
+    <t>DABIAN EFRAIN GONZALEZ PALACIO</t>
+  </si>
+  <si>
+    <t>73198379</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS OTERO QUINTANA</t>
+  </si>
+  <si>
     <t>12583855</t>
   </si>
   <si>
@@ -81,117 +186,6 @@
   </si>
   <si>
     <t>2008</t>
-  </si>
-  <si>
-    <t>92446646</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO MORENO TEHERAN</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>1047495324</t>
-  </si>
-  <si>
-    <t>MARIA PAULA BOSSA FOX</t>
-  </si>
-  <si>
-    <t>1047479830</t>
-  </si>
-  <si>
-    <t>ERIKA ANDREA BENITEZ PALAU</t>
-  </si>
-  <si>
-    <t>9103495</t>
-  </si>
-  <si>
-    <t>DABIAN EFRAIN GONZALEZ PALACIO</t>
-  </si>
-  <si>
-    <t>73111664</t>
-  </si>
-  <si>
-    <t>ROBERTO SIMANCAS REYES</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>19792192</t>
-  </si>
-  <si>
-    <t>RODRIGO SALOMON MARIOTE CARABALLO</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>73241391</t>
-  </si>
-  <si>
-    <t>ALEXANDER ALMANZA TAPIA</t>
-  </si>
-  <si>
-    <t>7885465</t>
-  </si>
-  <si>
-    <t>JULIO CESAR HERNANDEZ ACEVEDO</t>
-  </si>
-  <si>
-    <t>73155395</t>
-  </si>
-  <si>
-    <t>ALEJANDRO JAVIER FOX SALGADO</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>73198379</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS OTERO QUINTANA</t>
-  </si>
-  <si>
-    <t>1007028102</t>
-  </si>
-  <si>
-    <t>LADIS JOSE MUÑOZ CAMPO</t>
-  </si>
-  <si>
-    <t>1067404115</t>
-  </si>
-  <si>
-    <t>LUIS RICARDO GALVIS CASTRO</t>
-  </si>
-  <si>
-    <t>1143368957</t>
-  </si>
-  <si>
-    <t>RONALD FERNANDO CAUSIL MEJIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -290,7 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -303,9 +299,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -505,23 +499,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,10 +543,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EE423C-F5AD-E217-FA7E-7BBEB2AB2C44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156EE235-8D92-36AB-8AED-8C9BFCB2513C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30CBDF6-D8F3-4CD1-B0C9-23D58F007F2D}">
-  <dimension ref="B2:J60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E99659F-842A-4684-BD93-F1C502E06B7F}">
+  <dimension ref="B2:J57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -981,7 +975,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1026,7 +1020,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1058,12 +1052,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4466639</v>
+        <v>4127439</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1074,14 +1068,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5">
         <v>13</v>
@@ -1111,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1134,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>37219</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>930471</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1157,10 +1151,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>930471</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1177,13 +1171,13 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1325000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1194,19 +1188,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>56000</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>1400000</v>
+        <v>930471</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1217,19 +1211,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>67840</v>
+        <v>360000</v>
       </c>
       <c r="G20" s="18">
-        <v>1696000</v>
+        <v>9540000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1240,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
-        <v>37219</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>930471</v>
+        <v>879800</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1263,19 +1257,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>25</v>
-      </c>
       <c r="E22" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F22" s="18">
-        <v>984</v>
+        <v>32080</v>
       </c>
       <c r="G22" s="18">
-        <v>781980</v>
+        <v>802000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1286,19 +1280,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>984</v>
       </c>
       <c r="G23" s="18">
-        <v>781980</v>
+        <v>737717</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1309,16 +1303,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
-        <v>37219</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
         <v>930471</v>
@@ -1332,19 +1326,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>1467</v>
       </c>
       <c r="G25" s="18">
-        <v>930471</v>
+        <v>1325000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1355,13 +1349,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>29509</v>
@@ -1378,19 +1372,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>360000</v>
       </c>
       <c r="G27" s="18">
-        <v>930471</v>
+        <v>9540000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1401,19 +1395,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>930471</v>
+        <v>879800</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1424,19 +1418,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>1069</v>
       </c>
       <c r="G29" s="18">
-        <v>930471</v>
+        <v>802000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1447,19 +1441,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>1467</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>1166000</v>
+        <v>930471</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1470,19 +1464,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>44000</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>1166000</v>
+        <v>930471</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1493,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>360000</v>
       </c>
       <c r="G32" s="18">
-        <v>781980</v>
+        <v>9540000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1516,19 +1510,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
-        <v>29509</v>
+        <v>6885</v>
       </c>
       <c r="G33" s="18">
-        <v>781980</v>
+        <v>879800</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1539,19 +1533,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>781980</v>
+        <v>930471</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1562,19 +1556,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>781980</v>
+        <v>930471</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1585,19 +1579,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>360000</v>
       </c>
       <c r="G36" s="18">
-        <v>781980</v>
+        <v>9540000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1608,19 +1602,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F37" s="18">
-        <v>127200</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>3180000</v>
+        <v>930471</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1631,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
-        <v>127200</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
-        <v>3180000</v>
+        <v>930471</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1654,19 +1648,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F39" s="18">
-        <v>381600</v>
+        <v>360000</v>
       </c>
       <c r="G39" s="18">
-        <v>3180000</v>
+        <v>9540000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1677,19 +1671,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
-        <v>381600</v>
+        <v>360000</v>
       </c>
       <c r="G40" s="18">
-        <v>3180000</v>
+        <v>9540000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1700,19 +1694,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F41" s="18">
         <v>360000</v>
       </c>
       <c r="G41" s="18">
-        <v>3180000</v>
+        <v>9540000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1723,19 +1717,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F42" s="18">
-        <v>360000</v>
+        <v>381600</v>
       </c>
       <c r="G42" s="18">
-        <v>3180000</v>
+        <v>9540000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1746,19 +1740,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F43" s="18">
-        <v>360000</v>
+        <v>381600</v>
       </c>
       <c r="G43" s="18">
-        <v>3180000</v>
+        <v>9540000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1769,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F44" s="18">
-        <v>360000</v>
+        <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>3180000</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1792,19 +1786,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F45" s="18">
-        <v>360000</v>
+        <v>56000</v>
       </c>
       <c r="G45" s="18">
-        <v>3180000</v>
+        <v>1400000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1815,19 +1809,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F46" s="18">
-        <v>360000</v>
+        <v>37219</v>
       </c>
       <c r="G46" s="18">
-        <v>3180000</v>
+        <v>930471</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1844,13 +1838,13 @@
         <v>39</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F47" s="18">
-        <v>360000</v>
+        <v>37219</v>
       </c>
       <c r="G47" s="18">
-        <v>3180000</v>
+        <v>930471</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1861,19 +1855,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F48" s="18">
-        <v>46640</v>
+        <v>67840</v>
       </c>
       <c r="G48" s="18">
-        <v>1166000</v>
+        <v>1696000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1884,19 +1878,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F49" s="18">
-        <v>6885</v>
+        <v>37219</v>
       </c>
       <c r="G49" s="18">
-        <v>781980</v>
+        <v>930471</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1907,144 +1901,75 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="E50" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>46640</v>
       </c>
       <c r="G50" s="18">
-        <v>781980</v>
+        <v>1166000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="17" t="s">
+      <c r="B51" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781980</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
+      <c r="D51" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="E51" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="18">
-        <v>1069</v>
-      </c>
-      <c r="G52" s="18">
-        <v>850120</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="18">
-        <v>32080</v>
-      </c>
-      <c r="G53" s="18">
-        <v>850120</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="24">
-        <v>84800</v>
-      </c>
-      <c r="G54" s="24">
-        <v>2120000</v>
-      </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="26"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="H59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="32" t="s">
+      <c r="F51" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G51" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="H56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="H57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="H60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H56:J56"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
